--- a/resources/assets/35customers.xlsx
+++ b/resources/assets/35customers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12500" uniqueCount="2062">
   <si>
     <t>100000003628685</t>
   </si>
@@ -6208,13 +6208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6222,346 +6216,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -6569,251 +6233,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6823,57 +6245,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7135,19 +6510,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Y500"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="65.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
@@ -50650,39 +50045,33 @@
       <c r="AI500" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:Y500" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>